--- a/biology/Zoologie/Gorilles_dans_la_brume/Gorilles_dans_la_brume.xlsx
+++ b/biology/Zoologie/Gorilles_dans_la_brume/Gorilles_dans_la_brume.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gorilles dans la brume (Gorillas in the Mist), sous-titré Treize ans chez les gorilles, est un récit autobiographique de Dian Fossey paru en 1983, dans lequel elle raconte son expérience de vie au sein d'une communauté de gorilles de l'Est, ainsi que son combat en faveur de cette espèce. 
